--- a/F1 Teamradio/Transcripts/2017-China-Race.xlsx
+++ b/F1 Teamradio/Transcripts/2017-China-Race.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbn\Desktop\F1 Teamradio\Transcripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbn\Desktop\IRTM-F1TeamRadio\F1 Teamradio\Transcripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{326AB689-B015-45BC-8502-885FF241DF82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20D2B7CF-691A-4188-AB4E-E3AC56EC2BB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13752" windowHeight="4308" xr2:uid="{AF59DE70-214C-4FC9-926A-47AA522CC073}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="207">
   <si>
     <t>Lap*</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>OK we’ll take a look, Max.</t>
-  </si>
-  <si>
-    <t>Daniel Riccairdo</t>
   </si>
   <si>
     <t>Daniel we will wait for feedback until you are on the grid. Give me fedback when we are on the grid.</t>
@@ -1008,7 +1005,7 @@
   <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1056,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1089,10 +1086,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,10 +1119,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1144,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,10 +1185,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1210,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1257,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1279,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,10 +1306,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,10 +1350,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1378,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1400,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1411,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1422,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,10 +1438,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,10 +1449,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
         <v>54</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,10 +1460,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
         <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,10 +1482,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,10 +1493,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1507,10 +1504,10 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1518,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1529,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1543,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,10 +1570,10 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,10 +1592,10 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,10 +1603,10 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,10 +1614,10 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
         <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,10 +1625,10 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,10 +1636,10 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
         <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,10 +1647,10 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,10 +1658,10 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,10 +1669,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,10 +1680,10 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,10 +1691,10 @@
         <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,10 +1702,10 @@
         <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,10 +1724,10 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,10 +1735,10 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,10 +1746,10 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,10 +1757,10 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,10 +1768,10 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,10 +1779,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,10 +1790,10 @@
         <v>23</v>
       </c>
       <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
         <v>90</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,10 +1801,10 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,10 +1812,10 @@
         <v>23</v>
       </c>
       <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
         <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,10 +1823,10 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,10 +1834,10 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,10 +1845,10 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,10 +1856,10 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,10 +1867,10 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,10 +1889,10 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,10 +1900,10 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,10 +1911,10 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,10 +1922,10 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,10 +1933,10 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,10 +1944,10 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1961,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1972,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2002,7 +1999,7 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -2013,10 +2010,10 @@
         <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,10 +2021,10 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2035,10 +2032,10 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,10 +2043,10 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,7 +2054,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2071,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2079,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2090,10 +2087,10 @@
         <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,10 +2098,10 @@
         <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,10 +2109,10 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,10 +2120,10 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,10 +2131,10 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2145,10 +2142,10 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2156,10 +2153,10 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,10 +2164,10 @@
         <v>38</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2178,10 +2175,10 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2189,10 +2186,10 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,10 +2197,10 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,10 +2208,10 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,10 +2219,10 @@
         <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2233,10 +2230,10 @@
         <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,10 +2241,10 @@
         <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2255,10 +2252,10 @@
         <v>40</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2266,10 +2263,10 @@
         <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2277,10 +2274,10 @@
         <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2288,10 +2285,10 @@
         <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,10 +2296,10 @@
         <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,10 +2307,10 @@
         <v>41</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2321,10 +2318,10 @@
         <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,10 +2329,10 @@
         <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,10 +2340,10 @@
         <v>43</v>
       </c>
       <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" t="s">
         <v>140</v>
-      </c>
-      <c r="C121" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,10 +2351,10 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,10 +2362,10 @@
         <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,10 +2373,10 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,10 +2384,10 @@
         <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,10 +2395,10 @@
         <v>43</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2412,7 +2409,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2423,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,10 +2428,10 @@
         <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,10 +2439,10 @@
         <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2456,7 +2453,7 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,10 +2461,10 @@
         <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,10 +2472,10 @@
         <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2489,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,10 +2494,10 @@
         <v>50</v>
       </c>
       <c r="B135" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" t="s">
         <v>155</v>
-      </c>
-      <c r="C135" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,10 +2505,10 @@
         <v>50</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,10 +2516,10 @@
         <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2533,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2544,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2552,10 +2549,10 @@
         <v>52</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2566,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2577,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2585,10 +2582,10 @@
         <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2599,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2610,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2621,7 +2618,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,10 +2637,10 @@
         <v>56</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2651,10 +2648,10 @@
         <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2662,10 +2659,10 @@
         <v>56</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,10 +2670,10 @@
         <v>56</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2687,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -2698,7 +2695,7 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -2706,10 +2703,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -2717,10 +2714,10 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2728,10 +2725,10 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2739,10 +2736,10 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -2750,10 +2747,10 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -2764,7 +2761,7 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2775,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -2786,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2797,7 +2794,7 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -2808,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -2819,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -2827,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,10 +2835,10 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2849,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -2860,10 +2857,10 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -2871,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -2882,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,10 +2890,10 @@
         <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,10 +2912,10 @@
         <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -2926,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -2937,10 +2934,10 @@
         <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -2948,10 +2945,10 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -2959,10 +2956,10 @@
         <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,10 +2967,10 @@
         <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,10 +2978,10 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,10 +2989,10 @@
         <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3003,10 +3000,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C181" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3014,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,10 +3022,10 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3036,10 +3033,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3047,10 +3044,10 @@
         <v>5</v>
       </c>
       <c r="B185" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3058,10 +3055,10 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
